--- a/data/income_statement/2digits/size/87_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/87_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>87-Residential care activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>87-Residential care activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>13539.2135</v>
@@ -959,7 +865,7 @@
         <v>59945.62682</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>79460.61242999999</v>
+        <v>79460.61243000001</v>
       </c>
       <c r="G5" s="47" t="n">
         <v>95172.94025</v>
@@ -971,22 +877,27 @@
         <v>126221.30694</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>167320.3922</v>
+        <v>165366.21825</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>251288.29891</v>
+        <v>248903.87208</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>286695.09715</v>
+        <v>287792.4820200001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>403506.39761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>400321.51011</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>480165.709</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>13526.36793</v>
@@ -1010,22 +921,27 @@
         <v>119618.31701</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>157946.95833</v>
+        <v>156057.41139</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>228902.91414</v>
+        <v>226590.04826</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>260383.00557</v>
+        <v>261477.89414</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>364144.8090099999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>363564.33533</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>437214.68</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>0</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>12.84557</v>
@@ -1088,22 +1009,27 @@
         <v>6602.98993</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>9373.433869999999</v>
+        <v>9308.806859999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>22385.38477</v>
+        <v>22313.82382</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>26312.09158</v>
+        <v>26314.58788</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>39361.5886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>36757.17478</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>42951.029</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>47.3952</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>105.19179</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>55.628</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>47.3952</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>57.31519</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>39.214</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>47.8766</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>16.414</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>13491.8183</v>
@@ -1274,7 +1220,7 @@
         <v>79438.66536</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>95098.44214</v>
+        <v>95098.44213999998</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>107686.43233</v>
@@ -1283,22 +1229,27 @@
         <v>126191.90383</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>167284.60393</v>
+        <v>165330.42998</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>251179.20447</v>
+        <v>248794.77764</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>286648.72572</v>
+        <v>287746.1105900001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>403401.20582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>400216.3183200001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>480110.081</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>11225.3864</v>
@@ -1322,22 +1273,27 @@
         <v>104118.17862</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>136260.1439</v>
+        <v>135229.07949</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>198516.07092</v>
+        <v>196862.05812</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>221075.06035</v>
+        <v>222118.37422</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>303936.85159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>300665.47847</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>349947.707</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>330.5742300000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>4903.569</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>0</v>
@@ -1411,11 +1372,16 @@
       <c r="M16" s="48" t="n">
         <v>6633.322119999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>1466.965</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>11225.3864</v>
@@ -1427,10 +1393,10 @@
         <v>46811.83609</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>55329.37604</v>
+        <v>55329.37604000001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>75565.24811999999</v>
+        <v>75565.24812</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>86629.39565999999</v>
@@ -1439,22 +1405,27 @@
         <v>102680.37196</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>134060.19685</v>
+        <v>133029.13244</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>196183.43003</v>
+        <v>194529.41723</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>219087.39504</v>
+        <v>220130.70891</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>296972.95524</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>293701.58212</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>343570.18</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>6.993</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2266.4319</v>
@@ -1517,22 +1493,27 @@
         <v>22073.72521</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>31024.46003</v>
+        <v>30101.35049</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>52663.13355</v>
+        <v>51932.71952000001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>65573.66537</v>
+        <v>65627.73637</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>99464.35423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>99550.83984999999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>130162.374</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1528.75766</v>
@@ -1553,25 +1534,30 @@
         <v>10651.46752</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>12033.44287</v>
+        <v>12013.00603</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>21022.34903</v>
+        <v>20660.97099</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>33093.0863</v>
+        <v>32724.70314</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>40811.61736</v>
+        <v>40819.90541</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>63403.9743</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>64164.94774</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>82069.019</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>39.17338</v>
@@ -1640,16 +1631,21 @@
         <v>3870.29609</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>5999.71247</v>
+        <v>5999.712469999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>7359.838199999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>7414.365589999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>12976.714</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1489.58428</v>
@@ -1670,28 +1666,33 @@
         <v>10194.95872</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>10392.56973</v>
+        <v>10372.13289</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>18742.03312</v>
+        <v>18380.65508</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>29222.79021</v>
+        <v>28854.40705</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>34811.90489</v>
+        <v>34820.19294</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>56044.1361</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>56750.58215</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>69092.30499999999</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>737.6742400000001</v>
+        <v>737.6742399999999</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>2208.42964</v>
@@ -1709,25 +1710,30 @@
         <v>9371.077519999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>10040.28234</v>
+        <v>10060.71918</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>10002.111</v>
+        <v>9440.379499999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>19570.04725</v>
+        <v>19208.01638</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>24762.04801</v>
+        <v>24807.83096</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>36060.37993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>35385.89211</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>48093.355</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>227.45555</v>
@@ -1736,7 +1742,7 @@
         <v>19.3507</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>35.59522999999999</v>
+        <v>35.59523</v>
       </c>
       <c r="F25" s="47" t="n">
         <v>134.35918</v>
@@ -1748,25 +1754,30 @@
         <v>392.06981</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1151.07952</v>
+        <v>1123.00247</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1635.78539</v>
+        <v>1607.41509</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3120.71649</v>
+        <v>3055.23371</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2138.31518</v>
+        <v>2138.795869999999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>4220.240870000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3915.53457</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3604.917</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>27.6121</v>
@@ -1868,22 +1889,27 @@
         <v>419.6886499999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>544.61546</v>
+        <v>538.11546</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>927.5996399999999</v>
+        <v>927.5544299999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1053.22587</v>
+        <v>1053.69847</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1093.74635</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>991.06123</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>719.841</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>177.09716</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>5e-05</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1.26219</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>230.23181</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>163.851</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>0</v>
@@ -2021,25 +2062,30 @@
         <v>95.44775999999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>430.45222</v>
+        <v>402.37517</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>53.53471</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>112.79914</v>
+        <v>112.74964</v>
       </c>
       <c r="L32" s="48" t="n">
         <v>166.42455</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>202.54856</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>174.41068</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>392.311</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>2.02022</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>14.646</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>21.4841</v>
@@ -2141,22 +2197,27 @@
         <v>271.34719</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>738.95597</v>
+        <v>717.0856699999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1920.85706</v>
+        <v>1855.46899</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>797.66053</v>
+        <v>797.6686200000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2681.69388</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2507.81058</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2314.268</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>209.43258</v>
@@ -2177,25 +2238,30 @@
         <v>143.55861</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>406.76159</v>
+        <v>280.5523800000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>539.87315</v>
+        <v>296.27999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>234.66572</v>
+        <v>233.66183</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>324.2103499999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>634.04606</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>628.44589</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>270.615</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>18.59785</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>2.162</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2258,7 +2329,7 @@
         <v>0.00122</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>243.56632</v>
+        <v>0.00011</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>153.68349</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>493.97607</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>179.063</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0.22681</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>203.83803</v>
@@ -2333,25 +2414,30 @@
         <v>138.00581</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>402.52017</v>
+        <v>276.31096</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>5.554650000000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>22.94017</v>
+        <v>22.05444</v>
       </c>
       <c r="L40" s="48" t="n">
         <v>37.90577</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>107.46689</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>102.04064</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>83.648</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>5.59455</v>
@@ -2453,22 +2549,27 @@
         <v>2.92611</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>284.39751</v>
+        <v>284.37056</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>37.1453</v>
+        <v>37.02714</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>34.19972</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>13.77844</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>13.60452</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>5.742</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>346.45705</v>
@@ -2489,25 +2590,30 @@
         <v>1523.84894</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2387.47072</v>
+        <v>2061.07069</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2844.321570000001</v>
+        <v>2568.59789</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>4640.672140000001</v>
+        <v>4366.27267</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>7116.614659999999</v>
+        <v>7116.61466</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>15162.09488</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>13909.57502</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>18871.818</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>346.45705</v>
@@ -2528,25 +2634,30 @@
         <v>1523.84894</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2322.51978</v>
+        <v>1996.11975</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2787.3841</v>
+        <v>2511.66042</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>4302.28203</v>
+        <v>4027.88256</v>
       </c>
       <c r="L45" s="48" t="n">
         <v>6660.537969999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>13731.86083</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>13517.40666</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>18487.703</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2579,13 +2690,18 @@
         <v>456.07669</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1430.23405</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>392.16836</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>384.115</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>409.2401600000001</v>
@@ -2606,25 +2722,30 @@
         <v>8095.73978</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>8397.129550000001</v>
+        <v>8842.09858</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>8253.70167</v>
+        <v>8182.91671</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>17815.42588</v>
+        <v>17663.31559</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>19459.53818</v>
+        <v>19505.80182</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>24484.47986</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>24763.40577</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>32555.839</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>314.36827</v>
@@ -2645,25 +2766,30 @@
         <v>368.69516</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>275.1455799999999</v>
+        <v>275.14448</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1132.20945</v>
+        <v>1122.93893</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>4359.77829</v>
+        <v>4358.36229</v>
       </c>
       <c r="L48" s="47" t="n">
         <v>4738.09375</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>5620.2872</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>5552.544019999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>7317.586</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>3.28772</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>314.36827</v>
@@ -2723,25 +2854,30 @@
         <v>344.56117</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>264.62269</v>
+        <v>264.62159</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1132.20945</v>
+        <v>1122.93893</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>4356.88695</v>
+        <v>4355.470949999999</v>
       </c>
       <c r="L50" s="48" t="n">
         <v>4738.00063</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>5616.99948</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>5549.2563</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>7317.586</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>17.17549</v>
@@ -2762,25 +2898,30 @@
         <v>1363.32835</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>771.4612499999999</v>
+        <v>602.5609899999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>4225.057199999999</v>
+        <v>4053.49406</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1311.99707</v>
+        <v>1264.27884</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>3848.42899</v>
+        <v>3859.75664</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1039.66949</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>944.8831399999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2026.245</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>6.73109</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>92.3847</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>1.213</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>10.4444</v>
@@ -2879,25 +3030,30 @@
         <v>1214.95356</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>588.11162</v>
+        <v>419.21136</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>4050.00359</v>
+        <v>3878.44045</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1169.95302</v>
+        <v>1122.23479</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2429.51413</v>
+        <v>2440.84178</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>947.28479</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>852.4984400000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2025.032</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>706.43294</v>
@@ -2918,31 +3074,36 @@
         <v>7101.106589999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>7900.813879999999</v>
+        <v>8514.682070000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>5160.85392</v>
+        <v>5252.361580000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>20863.2071</v>
+        <v>20757.39904</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>20349.20294</v>
+        <v>20384.13893</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>29065.09757</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>29371.06665</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>37847.18</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>126.34904</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>450.0610799999999</v>
+        <v>450.06108</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>596.4345499999999</v>
@@ -2960,22 +3121,27 @@
         <v>1520.32857</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1817.75189</v>
+        <v>1801.61189</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>3943.76265</v>
+        <v>3913.05739</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>3790.378790000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>4562.1278</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>4617.33617</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>5989.387</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>580.0839</v>
@@ -2987,31 +3153,34 @@
         <v>1400.14527</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5796.794029999999</v>
+        <v>5796.79403</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>6970.504150000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>5956.69103</v>
+        <v>5956.691029999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>6380.48531</v>
+        <v>6994.3535</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3343.10203</v>
+        <v>3450.74969</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>16919.44445</v>
+        <v>16844.34165</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>16558.82415</v>
+        <v>16593.76014</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>24502.96977</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>24753.73048</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>31857.793</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>9</v>
@@ -3050,22 +3222,25 @@
         <v>32</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M59" s="35" t="n">
+        <v>64</v>
+      </c>
+      <c r="N59" s="35" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>